--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047683C9-C34E-4D45-9C95-C87CFD9E6ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D99B828-0EE4-E746-A88C-37DF6A9CC50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="500" windowWidth="24280" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -29068,7 +29068,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7748" uniqueCount="3248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7770" uniqueCount="3256">
   <si>
     <t>시즌</t>
   </si>
@@ -38812,6 +38812,30 @@
   </si>
   <si>
     <t>https://m.dcinside.com/mini/theatergoing/111389</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이서영 조성윤 이한솔 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 최연우 조성윤 한상훈 </t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.avclod2y5mz</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.u09f6t4u834n</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/223899755806</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/223899757424</t>
+  </si>
+  <si>
+    <t>https://m.dcinside.com/mini/musicalplay/256244</t>
+  </si>
+  <si>
+    <t>https://m.dcinside.com/mini/musicalplay/256378</t>
   </si>
 </sst>
 </file>
@@ -39106,7 +39130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -39273,12 +39297,69 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2E081884-2A09-B448-BF80-BA6986B8AEF0}"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.59996337778862885"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -39312,45 +39393,6 @@
         <right style="thin">
           <color theme="6" tint="0.59996337778862885"/>
         </right>
-        <top style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="0.59996337778862885"/>
-        </left>
-        <right/>
         <top style="thin">
           <color theme="6" tint="0.59996337778862885"/>
         </top>
@@ -39995,7 +40037,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:O704" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:O706" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{DC85AE02-0EA8-42E3-87F8-D865EFA4C2E6}" name="횟수" dataDxfId="14">
       <calculatedColumnFormula>N(A1)+1</calculatedColumnFormula>
@@ -40012,8 +40054,8 @@
     <tableColumn id="13" xr3:uid="{C87BCB63-7DDA-47D4-896C-AA919F4BD984}" name="극장" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{D0C2394A-0151-764C-8473-A40EBB50F95D}" name="캐보" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{2AC81BF4-8913-FE47-A8CF-DB8AF6BF5947}" name="후기" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{13FCC05F-283B-FF40-AFF3-973A3EC7C428}" name="L1" dataDxfId="0"/>
-    <tableColumn id="14" xr3:uid="{6C402620-F383-6846-A38C-7174940478F8}" name="L2" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{13FCC05F-283B-FF40-AFF3-973A3EC7C428}" name="L1" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{6C402620-F383-6846-A38C-7174940478F8}" name="L2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -40317,11 +40359,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB8FC5-3A29-48CA-894D-6639F6E020DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O704"/>
+  <dimension ref="A1:O706"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <pane ySplit="1" topLeftCell="A686" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O706" sqref="O706"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>
@@ -74133,6 +74175,102 @@
         <v>2963</v>
       </c>
     </row>
+    <row r="705" spans="1:15" ht="17" customHeight="1">
+      <c r="A705" s="38">
+        <f t="shared" ref="A705:A706" si="22">N(A704)+1</f>
+        <v>704</v>
+      </c>
+      <c r="B705" s="39">
+        <v>45821</v>
+      </c>
+      <c r="C705" s="40">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D705" s="41" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E705" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F705" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G705" s="42" t="s">
+        <v>483</v>
+      </c>
+      <c r="H705" s="41" t="s">
+        <v>831</v>
+      </c>
+      <c r="I705" s="8" t="s">
+        <v>3248</v>
+      </c>
+      <c r="J705" s="50">
+        <v>35000</v>
+      </c>
+      <c r="K705" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="L705" s="46" t="s">
+        <v>3252</v>
+      </c>
+      <c r="M705" s="46" t="s">
+        <v>3250</v>
+      </c>
+      <c r="N705" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="O705" s="47" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="706" spans="1:15" ht="17" customHeight="1">
+      <c r="A706" s="56">
+        <f t="shared" si="22"/>
+        <v>705</v>
+      </c>
+      <c r="B706" s="57">
+        <v>45822</v>
+      </c>
+      <c r="C706" s="58">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D706" s="59" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E706" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="F706" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G706" s="60" t="s">
+        <v>483</v>
+      </c>
+      <c r="H706" s="59" t="s">
+        <v>832</v>
+      </c>
+      <c r="I706" s="61" t="s">
+        <v>3249</v>
+      </c>
+      <c r="J706" s="52">
+        <v>35000</v>
+      </c>
+      <c r="K706" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="L706" s="48" t="s">
+        <v>3253</v>
+      </c>
+      <c r="M706" s="48" t="s">
+        <v>3251</v>
+      </c>
+      <c r="N706" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="O706" s="49" t="s">
+        <v>3255</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
